--- a/fuzzy_logic_rule_base.xlsx
+++ b/fuzzy_logic_rule_base.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
   <si>
     <t xml:space="preserve">Truth table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rules</t>
   </si>
   <si>
     <t xml:space="preserve">Temperature</t>
@@ -156,10 +159,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:C25"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -171,149 +174,152 @@
       <c r="B2" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
